--- a/Team-Data/2011-12/4-15-2011-12.xlsx
+++ b/Team-Data/2011-12/4-15-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.593</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K2" t="n">
         <v>0.449</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M2" t="n">
         <v>19.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="P2" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="Q2" t="n">
         <v>0.738</v>
@@ -714,7 +781,7 @@
         <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
         <v>22.1</v>
@@ -723,10 +790,10 @@
         <v>13.9</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -738,28 +805,28 @@
         <v>19.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>8</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
         <v>18</v>
@@ -768,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
         <v>13</v>
@@ -777,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP2" t="n">
         <v>24</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>23</v>
@@ -789,19 +856,19 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -819,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.59</v>
+        <v>0.583</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
@@ -866,82 +933,82 @@
         <v>35.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.459</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P3" t="n">
         <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T3" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="U3" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="V3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB3" t="n">
         <v>91.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>8</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,10 +1023,10 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
         <v>28</v>
@@ -971,22 +1038,22 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>28</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -995,13 +1062,13 @@
         <v>20</v>
       </c>
       <c r="BA3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="n">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
@@ -1051,7 +1118,7 @@
         <v>80.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.418</v>
+        <v>0.419</v>
       </c>
       <c r="L4" t="n">
         <v>4.1</v>
@@ -1060,7 +1127,7 @@
         <v>13.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="O4" t="n">
         <v>16.5</v>
@@ -1093,22 +1160,22 @@
         <v>5.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="AC4" t="n">
         <v>-13.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1159,25 +1226,25 @@
         <v>30</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
         <v>11</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
         <v>14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1230,7 +1297,7 @@
         <v>37.5</v>
       </c>
       <c r="J5" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.452</v>
@@ -1242,7 +1309,7 @@
         <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
         <v>15.5</v>
@@ -1260,13 +1327,13 @@
         <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="U5" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V5" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
@@ -1281,16 +1348,16 @@
         <v>17.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
         <v>7.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1302,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1323,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1344,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="AV5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L6" t="n">
         <v>6.8</v>
@@ -1424,37 +1491,37 @@
         <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T6" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
@@ -1466,13 +1533,13 @@
         <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1484,10 +1551,10 @@
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1496,10 +1563,10 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
@@ -1517,7 +1584,7 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AT6" t="n">
         <v>13</v>
@@ -1532,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J7" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L7" t="n">
         <v>7.5</v>
@@ -1606,37 +1673,37 @@
         <v>22.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.339</v>
+        <v>0.336</v>
       </c>
       <c r="O7" t="n">
         <v>15.1</v>
       </c>
       <c r="P7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R7" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S7" t="n">
         <v>32.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
         <v>21.1</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
@@ -1648,16 +1715,16 @@
         <v>18.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1666,13 +1733,13 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
@@ -1693,7 +1760,7 @@
         <v>27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
@@ -1705,10 +1772,10 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>4</v>
@@ -1726,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.55</v>
+        <v>0.542</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1779,22 +1846,22 @@
         <v>81.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.327</v>
+        <v>0.328</v>
       </c>
       <c r="O8" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P8" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q8" t="n">
         <v>0.735</v>
@@ -1803,19 +1870,19 @@
         <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T8" t="n">
         <v>43.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>5.1</v>
@@ -1824,25 +1891,25 @@
         <v>6.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
         <v>103.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1884,7 +1951,7 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1893,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>15</v>
@@ -1902,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.367</v>
+        <v>0.373</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
         <v>34.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,16 +2037,16 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R9" t="n">
         <v>11.8</v>
@@ -1991,16 +2058,16 @@
         <v>39.9</v>
       </c>
       <c r="U9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y9" t="n">
         <v>5.4</v>
@@ -2009,28 +2076,28 @@
         <v>19.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="AC9" t="n">
         <v>-5.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>25</v>
@@ -2039,7 +2106,7 @@
         <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2078,13 +2145,13 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2212,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
         <v>12</v>
@@ -2239,7 +2306,7 @@
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2257,10 +2324,10 @@
         <v>4</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2272,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC10" t="n">
         <v>22</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -2304,34 +2371,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
         <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>0.533</v>
+        <v>0.542</v>
       </c>
       <c r="H11" t="n">
         <v>48.7</v>
       </c>
       <c r="I11" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J11" t="n">
         <v>83.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N11" t="n">
         <v>0.36</v>
@@ -2343,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.791</v>
       </c>
       <c r="R11" t="n">
         <v>11.6</v>
@@ -2355,43 +2422,43 @@
         <v>42</v>
       </c>
       <c r="U11" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>4</v>
@@ -2409,13 +2476,13 @@
         <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS11" t="n">
         <v>18</v>
@@ -2436,7 +2503,7 @@
         <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
@@ -2451,13 +2518,13 @@
         <v>22</v>
       </c>
       <c r="BA11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -2564,28 +2631,28 @@
         <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2609,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2618,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="AV12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
@@ -2636,10 +2703,10 @@
         <v>4</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>7</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>13</v>
@@ -2779,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
@@ -2797,7 +2864,7 @@
         <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>2</v>
@@ -2806,10 +2873,10 @@
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ13" t="n">
         <v>24</v>
@@ -2821,7 +2888,7 @@
         <v>12</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.639</v>
+        <v>0.633</v>
       </c>
       <c r="H14" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I14" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J14" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.458</v>
@@ -2880,7 +2947,7 @@
         <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O14" t="n">
         <v>18.2</v>
@@ -2904,13 +2971,13 @@
         <v>22.1</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W14" t="n">
         <v>5.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.4</v>
@@ -2922,13 +2989,13 @@
         <v>20.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>2.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2979,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>22</v>
@@ -2988,7 +3055,7 @@
         <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>5</v>
@@ -3000,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC14" t="n">
         <v>11</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -3032,40 +3099,40 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="n">
         <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="n">
-        <v>0.583</v>
+        <v>0.593</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J15" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L15" t="n">
         <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
         <v>23.2</v>
@@ -3086,10 +3153,10 @@
         <v>19.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
@@ -3098,40 +3165,40 @@
         <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3149,19 +3216,19 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>14</v>
@@ -3170,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>22</v>
@@ -3179,10 +3246,10 @@
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>13</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
         <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>0.712</v>
+        <v>0.707</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J16" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.474</v>
@@ -3241,31 +3308,31 @@
         <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O16" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P16" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T16" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
@@ -3274,28 +3341,28 @@
         <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z16" t="n">
         <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC16" t="n">
         <v>6.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3307,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>23</v>
       </c>
       <c r="AN16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3331,22 +3398,22 @@
         <v>8</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3358,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>0.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3495,25 +3562,25 @@
         <v>2</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM17" t="n">
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
         <v>6</v>
@@ -3695,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3707,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3865,13 +3932,13 @@
         <v>4</v>
       </c>
       <c r="AM19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN19" t="n">
         <v>17</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
         <v>15</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>42</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3</v>
+        <v>0.288</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,37 +4027,37 @@
         <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M20" t="n">
         <v>11.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.76</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S20" t="n">
         <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U20" t="n">
         <v>20.9</v>
@@ -3999,28 +4066,28 @@
         <v>15.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>20</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
         <v>89.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>24</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,7 +4117,7 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4059,13 +4126,13 @@
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4077,13 +4144,13 @@
         <v>25</v>
       </c>
       <c r="AW20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX20" t="n">
         <v>20</v>
       </c>
-      <c r="AX20" t="n">
-        <v>21</v>
-      </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
         <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.517</v>
+        <v>0.525</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K21" t="n">
         <v>0.439</v>
@@ -4151,28 +4218,28 @@
         <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.323</v>
       </c>
       <c r="O21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P21" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R21" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S21" t="n">
         <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U21" t="n">
         <v>19.7</v>
@@ -4196,25 +4263,25 @@
         <v>22.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4229,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
         <v>26</v>
@@ -4244,10 +4311,10 @@
         <v>20</v>
       </c>
       <c r="AR21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS21" t="n">
         <v>15</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>14</v>
@@ -4274,10 +4341,10 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4408,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>12</v>
@@ -4450,10 +4517,10 @@
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
         <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.583</v>
+        <v>0.576</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4515,7 +4582,7 @@
         <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.378</v>
@@ -4524,34 +4591,34 @@
         <v>15.3</v>
       </c>
       <c r="P23" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.656</v>
+        <v>0.654</v>
       </c>
       <c r="R23" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S23" t="n">
         <v>31.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z23" t="n">
         <v>17.5</v>
@@ -4560,25 +4627,25 @@
         <v>20.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
         <v>10</v>
       </c>
-      <c r="AE23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8</v>
-      </c>
       <c r="AG23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>28</v>
@@ -4587,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4614,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>26</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>4.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -4796,7 +4863,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU24" t="n">
         <v>10</v>
@@ -4805,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4948,7 +5015,7 @@
         <v>8</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
@@ -4960,7 +5027,7 @@
         <v>14</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4969,22 +5036,22 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="n">
         <v>28</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="n">
-        <v>0.459</v>
+        <v>0.467</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,31 +5119,31 @@
         <v>36.5</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.796</v>
+        <v>0.797</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
         <v>29.8</v>
@@ -5091,7 +5158,7 @@
         <v>14.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
@@ -5100,19 +5167,19 @@
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
@@ -5124,28 +5191,28 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="n">
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5154,10 +5221,10 @@
         <v>2</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
@@ -5169,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX26" t="n">
         <v>16</v>
@@ -5181,13 +5248,13 @@
         <v>10</v>
       </c>
       <c r="BA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB26" t="n">
         <v>14</v>
       </c>
-      <c r="BB26" t="n">
-        <v>13</v>
-      </c>
       <c r="BC26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" t="n">
         <v>41</v>
       </c>
       <c r="G27" t="n">
-        <v>0.328</v>
+        <v>0.317</v>
       </c>
       <c r="H27" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J27" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L27" t="n">
         <v>6.3</v>
@@ -5246,13 +5313,13 @@
         <v>20.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="O27" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P27" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.738</v>
@@ -5261,16 +5328,16 @@
         <v>13.5</v>
       </c>
       <c r="S27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U27" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V27" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
         <v>8.5</v>
@@ -5282,22 +5349,22 @@
         <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB27" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.1</v>
+        <v>-6.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
         <v>27</v>
@@ -5339,31 +5406,31 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>5</v>
       </c>
       <c r="AX27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>5.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.361</v>
+        <v>0.35</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J29" t="n">
         <v>78.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L29" t="n">
         <v>5.6</v>
@@ -5616,13 +5683,13 @@
         <v>16.8</v>
       </c>
       <c r="P29" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S29" t="n">
         <v>31.2</v>
@@ -5631,7 +5698,7 @@
         <v>41.7</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>15</v>
@@ -5643,43 +5710,43 @@
         <v>4.9</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>23.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.2</v>
+        <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>20</v>
@@ -5697,7 +5764,7 @@
         <v>17</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -5897,13 +5964,13 @@
         <v>11</v>
       </c>
       <c r="AW30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6067,7 +6134,7 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-15-2011-12</t>
+          <t>2012-04-15</t>
         </is>
       </c>
     </row>
